--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Lhcgr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Lhcgr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,60 +531,60 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H2">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I2">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J2">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.7345354003776809</v>
+        <v>0.114644</v>
       </c>
       <c r="N2">
-        <v>0.7345354003776809</v>
+        <v>0.343932</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.107929744556041</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1536053250846448</v>
       </c>
       <c r="Q2">
-        <v>101.2859439306499</v>
+        <v>17.39448376015334</v>
       </c>
       <c r="R2">
-        <v>101.2859439306499</v>
+        <v>156.55035384138</v>
       </c>
       <c r="S2">
-        <v>0.2615920078918041</v>
+        <v>0.0291490119918145</v>
       </c>
       <c r="T2">
-        <v>0.2615920078918041</v>
+        <v>0.04275399158568544</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -596,57 +596,57 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>75.6052636891754</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H3">
-        <v>75.6052636891754</v>
+        <v>455.178215</v>
       </c>
       <c r="I3">
-        <v>0.1434300187149709</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J3">
-        <v>0.1434300187149709</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7345354003776809</v>
+        <v>0.9475654999999999</v>
       </c>
       <c r="N3">
-        <v>0.7345354003776809</v>
+        <v>1.895131</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.8920702554439589</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8463946749153552</v>
       </c>
       <c r="Q3">
-        <v>55.5347426345886</v>
+        <v>143.7703909618608</v>
       </c>
       <c r="R3">
-        <v>55.5347426345886</v>
+        <v>862.622345771165</v>
       </c>
       <c r="S3">
-        <v>0.1434300187149709</v>
+        <v>0.2409249339043447</v>
       </c>
       <c r="T3">
-        <v>0.1434300187149709</v>
+        <v>0.2355826582806241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>113.916721093036</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H4">
-        <v>113.916721093036</v>
+        <v>246.746613</v>
       </c>
       <c r="I4">
-        <v>0.2161103161480222</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J4">
-        <v>0.2161103161480222</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.7345354003776809</v>
+        <v>0.114644</v>
       </c>
       <c r="N4">
-        <v>0.7345354003776809</v>
+        <v>0.343932</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.107929744556041</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.1536053250846448</v>
       </c>
       <c r="Q4">
-        <v>83.67586433778581</v>
+        <v>9.429339566924</v>
       </c>
       <c r="R4">
-        <v>83.67586433778581</v>
+        <v>84.864056102316</v>
       </c>
       <c r="S4">
-        <v>0.2161103161480222</v>
+        <v>0.01580132735762983</v>
       </c>
       <c r="T4">
-        <v>0.2161103161480222</v>
+        <v>0.02317642248322095</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>150.902023922951</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H5">
-        <v>150.902023922951</v>
+        <v>246.746613</v>
       </c>
       <c r="I5">
-        <v>0.2862747784913111</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J5">
-        <v>0.2862747784913111</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7345354003776809</v>
+        <v>0.9475654999999999</v>
       </c>
       <c r="N5">
-        <v>0.7345354003776809</v>
+        <v>1.895131</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.8920702554439589</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.8463946749153552</v>
       </c>
       <c r="Q5">
-        <v>110.8428785600472</v>
+        <v>77.93619257355049</v>
       </c>
       <c r="R5">
-        <v>110.8428785600472</v>
+        <v>467.6171554413029</v>
       </c>
       <c r="S5">
-        <v>0.2862747784913111</v>
+        <v>0.1306024969322091</v>
       </c>
       <c r="T5">
-        <v>0.2862747784913111</v>
+        <v>0.12770651383718</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,365 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>123.444321</v>
+      </c>
+      <c r="H6">
+        <v>370.332963</v>
+      </c>
+      <c r="I6">
+        <v>0.2197321429647646</v>
+      </c>
+      <c r="J6">
+        <v>0.2264546783208506</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.114644</v>
+      </c>
+      <c r="N6">
+        <v>0.343932</v>
+      </c>
+      <c r="O6">
+        <v>0.107929744556041</v>
+      </c>
+      <c r="P6">
+        <v>0.1536053250846448</v>
+      </c>
+      <c r="Q6">
+        <v>14.152150736724</v>
+      </c>
+      <c r="R6">
+        <v>127.369356630516</v>
+      </c>
+      <c r="S6">
+        <v>0.02371563406093852</v>
+      </c>
+      <c r="T6">
+        <v>0.03478464448041292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>48.8078372759574</v>
-      </c>
-      <c r="H6">
-        <v>48.8078372759574</v>
-      </c>
-      <c r="I6">
-        <v>0.09259287875389165</v>
-      </c>
-      <c r="J6">
-        <v>0.09259287875389165</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.7345354003776809</v>
-      </c>
-      <c r="N6">
-        <v>0.7345354003776809</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>35.85108429506407</v>
-      </c>
-      <c r="R6">
-        <v>35.85108429506407</v>
-      </c>
-      <c r="S6">
-        <v>0.09259287875389165</v>
-      </c>
-      <c r="T6">
-        <v>0.09259287875389165</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>123.444321</v>
+      </c>
+      <c r="H7">
+        <v>370.332963</v>
+      </c>
+      <c r="I7">
+        <v>0.2197321429647646</v>
+      </c>
+      <c r="J7">
+        <v>0.2264546783208506</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.9475654999999999</v>
+      </c>
+      <c r="N7">
+        <v>1.895131</v>
+      </c>
+      <c r="O7">
+        <v>0.8920702554439589</v>
+      </c>
+      <c r="P7">
+        <v>0.8463946749153552</v>
+      </c>
+      <c r="Q7">
+        <v>116.9715797505255</v>
+      </c>
+      <c r="R7">
+        <v>701.8294785031529</v>
+      </c>
+      <c r="S7">
+        <v>0.196016508903826</v>
+      </c>
+      <c r="T7">
+        <v>0.1916700338404377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H8">
+        <v>463.02893</v>
+      </c>
+      <c r="I8">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J8">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.114644</v>
+      </c>
+      <c r="N8">
+        <v>0.343932</v>
+      </c>
+      <c r="O8">
+        <v>0.107929744556041</v>
+      </c>
+      <c r="P8">
+        <v>0.1536053250846448</v>
+      </c>
+      <c r="Q8">
+        <v>17.69449621697333</v>
+      </c>
+      <c r="R8">
+        <v>159.25046595276</v>
+      </c>
+      <c r="S8">
+        <v>0.02965176141640925</v>
+      </c>
+      <c r="T8">
+        <v>0.04349139375474929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H9">
+        <v>463.02893</v>
+      </c>
+      <c r="I9">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J9">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.9475654999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.895131</v>
+      </c>
+      <c r="O9">
+        <v>0.8920702554439589</v>
+      </c>
+      <c r="P9">
+        <v>0.8463946749153552</v>
+      </c>
+      <c r="Q9">
+        <v>146.2500798566383</v>
+      </c>
+      <c r="R9">
+        <v>877.50047913983</v>
+      </c>
+      <c r="S9">
+        <v>0.245080301912185</v>
+      </c>
+      <c r="T9">
+        <v>0.2396458850523701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>50.0323125</v>
+      </c>
+      <c r="H10">
+        <v>100.064625</v>
+      </c>
+      <c r="I10">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J10">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.114644</v>
+      </c>
+      <c r="N10">
+        <v>0.343932</v>
+      </c>
+      <c r="O10">
+        <v>0.107929744556041</v>
+      </c>
+      <c r="P10">
+        <v>0.1536053250846448</v>
+      </c>
+      <c r="Q10">
+        <v>5.735904434250001</v>
+      </c>
+      <c r="R10">
+        <v>34.4154266055</v>
+      </c>
+      <c r="S10">
+        <v>0.009612009729248866</v>
+      </c>
+      <c r="T10">
+        <v>0.009398872780576216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>50.0323125</v>
+      </c>
+      <c r="H11">
+        <v>100.064625</v>
+      </c>
+      <c r="I11">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J11">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.9475654999999999</v>
+      </c>
+      <c r="N11">
+        <v>1.895131</v>
+      </c>
+      <c r="O11">
+        <v>0.8920702554439589</v>
+      </c>
+      <c r="P11">
+        <v>0.8463946749153552</v>
+      </c>
+      <c r="Q11">
+        <v>47.40889321021875</v>
+      </c>
+      <c r="R11">
+        <v>189.635572840875</v>
+      </c>
+      <c r="S11">
+        <v>0.07944601379139392</v>
+      </c>
+      <c r="T11">
+        <v>0.05178958390474333</v>
       </c>
     </row>
   </sheetData>
